--- a/document/課題管理.xlsx
+++ b/document/課題管理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">ヘッダーの内容を共通部品化したいが、各ページからの参照方法がわからない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/24 やらないことにする</t>
   </si>
   <si>
     <t xml:space="preserve">検索</t>
@@ -78,7 +81,17 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ややこしそうなので、いったんべた書き</t>
+    <t xml:space="preserve">ややこしそうなので、いったんべた書き
+→1/23解決</t>
+  </si>
+  <si>
+    <t xml:space="preserve">削除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">削除が実行できない、DBに通らない?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/24 Mapperのid名に誤りがあった。実行できた。</t>
   </si>
 </sst>
 </file>
@@ -121,12 +134,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,24 +182,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,70 +244,93 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="33.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="5.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="33.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="7" t="n">
         <v>45309</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="7" t="n">
         <v>45309</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/document/課題管理.xlsx
+++ b/document/課題管理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -93,6 +93,12 @@
   <si>
     <t xml:space="preserve">1/24 Mapperのid名に誤りがあった。実行できた。</t>
   </si>
+  <si>
+    <t xml:space="preserve">入出庫データが登録できない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データの登録者がダミー（user）のまま、ログインしたユーザの情報で残したい。</t>
+  </si>
 </sst>
 </file>
 
@@ -244,10 +250,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,6 +339,19 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/document/課題管理.xlsx
+++ b/document/課題管理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -97,7 +97,19 @@
     <t xml:space="preserve">入出庫データが登録できない</t>
   </si>
   <si>
+    <t xml:space="preserve">→登録できた</t>
+  </si>
+  <si>
     <t xml:space="preserve">データの登録者がダミー（user）のまま、ログインしたユーザの情報で残したい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入出庫によって在庫情報を加減算したい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→計算できるようになった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録、更新、削除しても何もメッセージが出ないので、メッセージ表示する</t>
   </si>
 </sst>
 </file>
@@ -250,10 +262,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,10 +358,38 @@
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2" t="n">
+        <v>45315</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/document/課題管理.xlsx
+++ b/document/課題管理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">登録、更新、削除しても何もメッセージが出ないので、メッセージ表示する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">検索条件の「クリア」ボタンが効かなくなっている</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入出庫画面の在庫数を、一覧ではなく商品情報のカードに出すようにする。</t>
   </si>
 </sst>
 </file>
@@ -262,10 +268,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -392,6 +398,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/document/課題管理.xlsx
+++ b/document/課題管理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -28,16 +28,16 @@
     <t xml:space="preserve">open</t>
   </si>
   <si>
+    <t xml:space="preserve">機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内容</t>
+  </si>
+  <si>
     <t xml:space="preserve">close</t>
   </si>
   <si>
-    <t xml:space="preserve">機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">策</t>
+    <t xml:space="preserve">状況</t>
   </si>
   <si>
     <t xml:space="preserve">画面</t>
@@ -115,7 +115,22 @@
     <t xml:space="preserve">検索条件の「クリア」ボタンが効かなくなっている</t>
   </si>
   <si>
+    <t xml:space="preserve">→何もしていないが、治った。</t>
+  </si>
+  <si>
     <t xml:space="preserve">入出庫画面の在庫数を、一覧ではなく商品情報のカードに出すようにする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→在庫情報を別のカードに出し、エリア別に表示するようにした</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バリデーションができていない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">実際は同じ製品なのに、マスター登録できてしまう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メーカーIDと型番を複合キーとして、重複していたらエラーにする。</t>
   </si>
 </sst>
 </file>
@@ -206,7 +221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,6 +238,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,12 +262,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -268,35 +291,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="5.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="33.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="33.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="33.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -304,114 +328,179 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>45309</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="10" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>45309</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="10" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="11" t="n">
         <v>45314</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="10" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="n">
         <v>45315</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="12" t="n">
+        <v>45316</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="n">
         <v>45315</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="n">
+      <c r="A7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="n">
         <v>45316</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="10" t="n">
+        <v>45316</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="n">
         <v>45317</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
-        <v>45317</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="A9" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="E9" s="12" t="n">
+        <v>45317</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
-        <v>45317</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
+      <c r="A10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>45317</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
